--- a/doc/JDT-cyrnapoleon-CosmosAddon.xlsx
+++ b/doc/JDT-cyrnapoleon-CosmosAddon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt63blc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt63blc\Documents\GitHub\Cosmos-Language-Server\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1C0B5F-E511-4EC5-B139-236F54E266A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E99E579-517B-4248-A490-1981FF5B19A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1335" windowWidth="21600" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="18" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -136,7 +136,16 @@
     <t>Projet</t>
   </si>
   <si>
-    <t>Reprise du travail sur le projet principale</t>
+    <t>Reprise du travail sur le projet principale (découverte de yoman generator, qui sera ce que je vais utiliser pour faire mon support de language sur vscode (addon))</t>
+  </si>
+  <si>
+    <t>J'ai réussi à créer mon projet d'addon vscode en local maintenant je dois comprendre comment ça fonctionne je regarde donc une vidéo sur youtube. Mon projet avait un problème (mon code n'affactait pas mes fichiers de démo) j'ai perdu beaucoup de temps à régler ce probleme (solution : source de cosmos dans le package.json ScopeName": "source.cosmos") Ensuite j'ai juste eu le temps de colorer les commentaires avec succès</t>
+  </si>
+  <si>
+    <t>Maintenant que mon addon est fonctionnel localement je commence à concrètement coder la coloration du language cosmos, j'ai fait les couleurs de bases (strings et commentaires) puis j'ai réussi à faire en sorte que les "si, alors que, répeter, etc.." soient reconnu comme des "keywords" et donc en couleur violette comme les "if, else, etc.." qu'on connait, j'ai ajouté aussi les variables du languages ainsi que les int quand ils sont utilisés</t>
+  </si>
+  <si>
+    <t>J'ai ajouté la gestion des functions en terme de couleur et je me suis renseigné comment faire pour intégrer une gestion non seulement des couleurs mais aussi de la syntaxe, pour l'instant je peux faire en sorte que une ligne soit rouge si il n'y pas de point à la fin par exemple mais ce n'est pas exactement ce que je recherche, yoman generator n'a pour l'instant pas l'air de proposer une fonction de message d'erreur je vais donc surement devoir combiné des librairies, je continue mes recherches</t>
   </si>
 </sst>
 </file>
@@ -361,7 +370,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -440,51 +449,59 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -804,10 +821,10 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -825,10 +842,10 @@
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="32"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
@@ -840,10 +857,10 @@
       <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
@@ -855,10 +872,10 @@
       <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="22" t="s">
         <v>6</v>
       </c>
@@ -870,12 +887,12 @@
       <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -898,7 +915,7 @@
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="33">
         <v>45533</v>
       </c>
       <c r="C6" s="5">
@@ -913,7 +930,7 @@
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="8">
         <v>75</v>
       </c>
@@ -924,21 +941,21 @@
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="24"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="25"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="10"/>
@@ -947,16 +964,18 @@
       <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="33">
+        <v>45540</v>
+      </c>
       <c r="C12" s="5">
         <v>90</v>
       </c>
@@ -965,11 +984,11 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="8">
         <v>45</v>
       </c>
@@ -980,21 +999,21 @@
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="24"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" s="25"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="10"/>
@@ -1003,42 +1022,50 @@
       <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" ht="81" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="33">
+        <v>45547</v>
+      </c>
+      <c r="C18" s="5">
+        <v>135</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="24"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="24"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="10"/>
@@ -1047,42 +1074,50 @@
       <c r="A23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-    </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:5" ht="81" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="33">
+        <v>45554</v>
+      </c>
+      <c r="C24" s="5">
+        <v>135</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="24"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="24"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="24"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="25"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="10"/>
@@ -1091,42 +1126,50 @@
       <c r="A29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-    </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="33">
+        <v>45561</v>
+      </c>
+      <c r="C30" s="13">
+        <v>135</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="24"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="24"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="24"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
-      <c r="B34" s="25"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="8"/>
@@ -1135,42 +1178,42 @@
       <c r="A35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="24"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="24"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="25"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
       <c r="E40" s="10"/>
@@ -1179,42 +1222,42 @@
       <c r="A41" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="31"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="24"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="24"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="25"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="10"/>
       <c r="D46" s="11"/>
       <c r="E46" s="10"/>
@@ -1223,42 +1266,42 @@
       <c r="A47" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="31"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="B49" s="24"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
-      <c r="B50" s="24"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="24"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
-      <c r="B52" s="25"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="10"/>
       <c r="D52" s="11"/>
       <c r="E52" s="10"/>
@@ -1267,42 +1310,42 @@
       <c r="A53" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="32"/>
     </row>
     <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="31"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
-      <c r="B55" s="24"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
-      <c r="B56" s="24"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="B57" s="24"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="8"/>
       <c r="D57" s="9"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="B58" s="25"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="10"/>
       <c r="D58" s="11"/>
       <c r="E58" s="10"/>
@@ -1311,42 +1354,42 @@
       <c r="A59" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="28"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
-      <c r="B60" s="31"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="13"/>
       <c r="D60" s="14"/>
       <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
-      <c r="B61" s="24"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="8"/>
       <c r="D61" s="9"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
-      <c r="B62" s="24"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
-      <c r="B63" s="24"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
-      <c r="B64" s="25"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
       <c r="E64" s="8"/>
@@ -1355,19 +1398,19 @@
       <c r="A65" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="28"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="32"/>
     </row>
     <row r="66" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="30"/>
+      <c r="B66" s="35"/>
       <c r="C66" s="15">
         <f>MROUND(SUM(C6:C65) /60,0.2)</f>
-        <v>4.6000000000000005</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="17"/>
@@ -1382,6 +1425,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:E59"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -1398,15 +1450,6 @@
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:E59"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C54:C58 C48:C52 C36:C40 C42:C46 C18:C22 B6 C12:C16 C24:C28 C30:C34 C60:C64 C6:C10" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
@@ -1428,26 +1471,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -1690,26 +1713,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1726,4 +1750,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>